--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>import</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>พณ0308606000311</t>
+  </si>
+  <si>
+    <t>quota</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,31 +591,33 @@
     <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="108.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -629,76 +634,79 @@
         <v>29</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -714,77 +722,80 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="3">
         <v>42756</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>36.0852</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>25000</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1000</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1440</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>1299067.2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -800,73 +811,76 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="6">
         <v>42757</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>37.0852</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>25000</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>1000</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>1440</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>1299067.2</v>
       </c>
     </row>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f3" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>request_id</t>
   </si>
   <si>
-    <t>request_expire</t>
-  </si>
-  <si>
     <t>type_product</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>037495</t>
   </si>
   <si>
-    <t>request_print</t>
-  </si>
-  <si>
     <t>type_request</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>quota</t>
+  </si>
+  <si>
+    <t>request_expire_date</t>
+  </si>
+  <si>
+    <t>request_print_date</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,22 +622,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1</v>
@@ -661,57 +661,57 @@
         <v>7</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>42774</v>
@@ -726,58 +726,58 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="3">
         <v>42756</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1">
         <v>36.0852</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="1">
         <v>25000</v>
@@ -786,7 +786,7 @@
         <v>1000</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="1">
         <v>1440</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6">
         <v>42775</v>
@@ -815,58 +815,58 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S3" s="6">
         <v>42757</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W3" s="1">
         <v>37.0852</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="1">
         <v>25000</v>
@@ -875,7 +875,7 @@
         <v>1000</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="1">
         <v>1440</v>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,75 +914,75 @@
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="6">
         <v>42756</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>36.0852</v>
@@ -1002,31 +1002,31 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="6">
         <v>42757</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>36.0852</v>
@@ -1046,31 +1046,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6">
         <v>42758</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>36.0852</v>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="162">
   <si>
     <t>import</t>
   </si>
@@ -220,12 +220,297 @@
   </si>
   <si>
     <t>request_print_date</t>
+  </si>
+  <si>
+    <t>พณ0308606000312</t>
+  </si>
+  <si>
+    <t>พณ0308606000313</t>
+  </si>
+  <si>
+    <t>พณ0308606000314</t>
+  </si>
+  <si>
+    <t>พณ0308606000315</t>
+  </si>
+  <si>
+    <t>พณ0308606000316</t>
+  </si>
+  <si>
+    <t>พณ0308606000317</t>
+  </si>
+  <si>
+    <t>พณ0308606000318</t>
+  </si>
+  <si>
+    <t>พณ0308606000319</t>
+  </si>
+  <si>
+    <t>พณ0308606000320</t>
+  </si>
+  <si>
+    <t>พณ0308606000321</t>
+  </si>
+  <si>
+    <t>พณ0308606000322</t>
+  </si>
+  <si>
+    <t>พณ0308606000323</t>
+  </si>
+  <si>
+    <t>พณ0308606000324</t>
+  </si>
+  <si>
+    <t>พณ0308606000325</t>
+  </si>
+  <si>
+    <t>พณ0308606000326</t>
+  </si>
+  <si>
+    <t>พณ0308606000327</t>
+  </si>
+  <si>
+    <t>พณ0308606000328</t>
+  </si>
+  <si>
+    <t>พณ0308606000329</t>
+  </si>
+  <si>
+    <t>พณ0308606000330</t>
+  </si>
+  <si>
+    <t>พณ0308606000331</t>
+  </si>
+  <si>
+    <t>พณ0308606000332</t>
+  </si>
+  <si>
+    <t>037497</t>
+  </si>
+  <si>
+    <t>037498</t>
+  </si>
+  <si>
+    <t>037499</t>
+  </si>
+  <si>
+    <t>037500</t>
+  </si>
+  <si>
+    <t>037501</t>
+  </si>
+  <si>
+    <t>037502</t>
+  </si>
+  <si>
+    <t>037503</t>
+  </si>
+  <si>
+    <t>037504</t>
+  </si>
+  <si>
+    <t>037505</t>
+  </si>
+  <si>
+    <t>037506</t>
+  </si>
+  <si>
+    <t>037507</t>
+  </si>
+  <si>
+    <t>037508</t>
+  </si>
+  <si>
+    <t>037509</t>
+  </si>
+  <si>
+    <t>037510</t>
+  </si>
+  <si>
+    <t>037511</t>
+  </si>
+  <si>
+    <t>037512</t>
+  </si>
+  <si>
+    <t>037513</t>
+  </si>
+  <si>
+    <t>037514</t>
+  </si>
+  <si>
+    <t>037515</t>
+  </si>
+  <si>
+    <t>037516</t>
+  </si>
+  <si>
+    <t>037517</t>
+  </si>
+  <si>
+    <t>037518</t>
+  </si>
+  <si>
+    <t>custom_print_date</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48618</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48619</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48620</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48621</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48622</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48623</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48624</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48625</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48626</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48627</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48628</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48629</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48630</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48631</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48632</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48633</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48634</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48635</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48636</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48637</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48638</t>
+  </si>
+  <si>
+    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48639</t>
+  </si>
+  <si>
+    <t>0105532018537</t>
+  </si>
+  <si>
+    <t>บริษัท ขายข้าว (ประเทศไทย) จำกัด</t>
+  </si>
+  <si>
+    <t>0-8888-8888-9</t>
+  </si>
+  <si>
+    <t>นายสิริชัย ดิบดาน</t>
+  </si>
+  <si>
+    <t>9 ต.ในเมือง อ.เมืองปทุมธานี จ.ปทุมธานี 12000</t>
+  </si>
+  <si>
+    <t>0105532018538</t>
+  </si>
+  <si>
+    <t>บริษัท ศิริชัยศรี จำกัด</t>
+  </si>
+  <si>
+    <t>88/27-29 ถนนสุขุมวิท แขวงคลองเตยเหนือ เขตวัฒนา กรุงเทพมหานคร 10111</t>
+  </si>
+  <si>
+    <t>0-2897-4821-9</t>
+  </si>
+  <si>
+    <t>นายวิระชัย กินดี</t>
+  </si>
+  <si>
+    <t>8 ต.ในเมือง อ.เมืองนนทบุรี จ.นนทบุรี 12000</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า</t>
+  </si>
+  <si>
+    <t>ข้าวเหนียว</t>
+  </si>
+  <si>
+    <t>1003.30.32</t>
+  </si>
+  <si>
+    <t>1003.30.33</t>
+  </si>
+  <si>
+    <t>A0270600106873</t>
+  </si>
+  <si>
+    <t>A0270600106874</t>
+  </si>
+  <si>
+    <t>A0270600106875</t>
+  </si>
+  <si>
+    <t>A0270600106876</t>
+  </si>
+  <si>
+    <t>A0270600106877</t>
+  </si>
+  <si>
+    <t>A0270600106878</t>
+  </si>
+  <si>
+    <t>A0270600106879</t>
+  </si>
+  <si>
+    <t>A0270600106880</t>
+  </si>
+  <si>
+    <t>A0270600106881</t>
+  </si>
+  <si>
+    <t>A0270600106882</t>
+  </si>
+  <si>
+    <t>A0270600106883</t>
+  </si>
+  <si>
+    <t>A0270600106884</t>
+  </si>
+  <si>
+    <t>2/29/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="188" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -278,6 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,7 +582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,30 +883,33 @@
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="108.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="23" max="23" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -706,7 +998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -795,7 +1087,7 @@
         <v>1299067.2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -866,7 +1158,7 @@
         <v>37.0852</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Y3" s="1">
         <v>25000</v>
@@ -881,8 +1173,1994 @@
         <v>1440</v>
       </c>
       <c r="AC3" s="1">
-        <v>1299067.2</v>
-      </c>
+        <v>1335067.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42804</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42793</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="6">
+        <v>42788</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="1">
+        <v>35.78</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>128808</v>
+      </c>
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42805</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42794</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="6">
+        <v>42789</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="1">
+        <v>35</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1250</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>306250</v>
+      </c>
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42814</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42799</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="6">
+        <v>42795</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1">
+        <v>36.008699999999997</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>414820.2</v>
+      </c>
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="6">
+        <v>42815</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42800</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="6">
+        <v>42796</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="1">
+        <v>34.057899999999997</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>490433.8</v>
+      </c>
+      <c r="AD7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6">
+        <v>42847</v>
+      </c>
+      <c r="D8" s="6">
+        <v>42832</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="6">
+        <v>42827</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="1">
+        <v>38.888800000000003</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1049997.6000000001</v>
+      </c>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6">
+        <v>42848</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42833</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="6">
+        <v>42828</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1450</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1075470.8</v>
+      </c>
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6">
+        <v>42849</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42833</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="6">
+        <v>42829</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2670134.4</v>
+      </c>
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6">
+        <v>42860</v>
+      </c>
+      <c r="D11" s="6">
+        <v>42845</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="6">
+        <v>42840</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="1">
+        <v>34.024500000000003</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1750</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>119085.8</v>
+      </c>
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42861</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42846</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="6">
+        <v>42841</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>534026.9</v>
+      </c>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42862</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42847</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="6">
+        <v>42842</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>40000</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1335067.2</v>
+      </c>
+      <c r="AD13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42863</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42848</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="6">
+        <v>42843</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="1">
+        <v>37.558799999999998</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>25000</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1352116.8</v>
+      </c>
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42915</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42900</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="6">
+        <v>42895</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>37000</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>785</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1077139.6000000001</v>
+      </c>
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42916</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42901</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="6">
+        <v>42896</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>18000</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>980</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>654182.9</v>
+      </c>
+      <c r="AD16" s="8"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42917</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42902</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="6">
+        <v>42897</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="1">
+        <v>37.485199999999999</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>17000</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>917637.7</v>
+      </c>
+      <c r="AD17" s="8"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42918</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42903</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" s="6">
+        <v>42898</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>9000</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>788</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>263008.2</v>
+      </c>
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42981</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42996</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" s="6">
+        <v>42991</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>801040.3</v>
+      </c>
+      <c r="AD19" s="8"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42982</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42997</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="6">
+        <v>42992</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="1">
+        <v>38.72</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1250</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>387200</v>
+      </c>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42983</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42998</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="6">
+        <v>42993</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>7000</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>373818.8</v>
+      </c>
+      <c r="AD21" s="8"/>
+    </row>
+    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43045</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43029</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" s="6">
+        <v>43023</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="1">
+        <v>39.555</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>16000</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1270</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>803757.6</v>
+      </c>
+      <c r="AD22" s="8"/>
+    </row>
+    <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43046</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43030</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="6">
+        <v>43024</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>17000</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>907845.7</v>
+      </c>
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43047</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43031</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" s="6">
+        <v>43025</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="1">
+        <v>33.225200000000001</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>9000</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1380</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>412657</v>
+      </c>
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43098</v>
+      </c>
+      <c r="D25" s="6">
+        <v>43083</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="6">
+        <v>43088</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>213610.8</v>
+      </c>
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="S5" sqref="S5:AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,9 +3188,13 @@
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="24" max="24" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
@@ -955,8 +3237,11 @@
       <c r="N1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -999,8 +3284,11 @@
       <c r="N2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="6">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1043,8 +3331,11 @@
       <c r="N3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="6">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1087,6 +3378,610 @@
       <c r="N4">
         <v>1000</v>
       </c>
+      <c r="O4" s="6">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6">
+        <v>42789</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1">
+        <v>35000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>306250</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="U5" s="4"/>
+      <c r="AA5"/>
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6">
+        <v>42796</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>34.057899999999997</v>
+      </c>
+      <c r="K6" s="1">
+        <v>34000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>490433.8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N6">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>42804</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="U6" s="4"/>
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="6">
+        <v>42828</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K7" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1075470.8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N7">
+        <v>1000</v>
+      </c>
+      <c r="O7" s="6">
+        <v>42835</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="AD7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42829</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K8" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2670134.4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>50000</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="6">
+        <v>42839</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="U8" s="4"/>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6">
+        <v>42840</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1">
+        <v>34.024500000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>34000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>119085.8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="N9">
+        <v>1000</v>
+      </c>
+      <c r="O9" s="6">
+        <v>42850</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="U9" s="4"/>
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6">
+        <v>42843</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1">
+        <v>37.558799999999998</v>
+      </c>
+      <c r="K10" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1352116.8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>25000</v>
+      </c>
+      <c r="N10">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="6">
+        <v>42853</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="U10" s="4"/>
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6">
+        <v>42896</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K11" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>654182.9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="N11">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="6">
+        <v>42916</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="U11" s="4"/>
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42898</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K12" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>263008.2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9000</v>
+      </c>
+      <c r="N12">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="6">
+        <v>42916</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="U12" s="4"/>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6">
+        <v>42991</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K13" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>801040.3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>15000</v>
+      </c>
+      <c r="N13">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="6">
+        <v>42998</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="U13" s="4"/>
+      <c r="AD13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43023</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1">
+        <v>39.555</v>
+      </c>
+      <c r="K14" s="1">
+        <v>39000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>803757.6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>16000</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="6">
+        <v>43031</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="U14" s="4"/>
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43024</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K15" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>907845.7</v>
+      </c>
+      <c r="M15" s="1">
+        <v>17000</v>
+      </c>
+      <c r="N15">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="6">
+        <v>43029</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="U15" s="4"/>
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43088</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="K16" s="1">
+        <v>37000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>213610.8</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N16">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="6">
+        <v>43094</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="U16" s="4"/>
+      <c r="AD16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="f3" sheetId="1" r:id="rId1"/>
@@ -456,15 +456,6 @@
     <t>ข้าวเปลือกเจ้า</t>
   </si>
   <si>
-    <t>ข้าวเหนียว</t>
-  </si>
-  <si>
-    <t>1003.30.32</t>
-  </si>
-  <si>
-    <t>1003.30.33</t>
-  </si>
-  <si>
     <t>A0270600106873</t>
   </si>
   <si>
@@ -502,6 +493,15 @@
   </si>
   <si>
     <t>2/29/2017</t>
+  </si>
+  <si>
+    <t>1006.30.33</t>
+  </si>
+  <si>
+    <t>1006.30.32</t>
+  </si>
+  <si>
+    <t>ข้าวเหนียวอินเดีย</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.0"/>
+    <numFmt numFmtId="187" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -563,7 +563,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1247,7 +1247,7 @@
         <v>35.78</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="1">
         <v>3000</v>
@@ -1256,7 +1256,7 @@
         <v>1000</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB4" s="1">
         <v>1200</v>
@@ -1337,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="1">
         <v>7000</v>
@@ -1427,7 +1427,7 @@
         <v>36.008699999999997</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y6" s="1">
         <v>8000</v>
@@ -1436,7 +1436,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB6" s="1">
         <v>1440</v>
@@ -1517,7 +1517,7 @@
         <v>34.057899999999997</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="1">
         <v>10000</v>
@@ -1607,7 +1607,7 @@
         <v>38.888800000000003</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y8" s="1">
         <v>15000</v>
@@ -1616,7 +1616,7 @@
         <v>1000</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB8" s="1">
         <v>1800</v>
@@ -1697,7 +1697,7 @@
         <v>37.0852</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y9" s="1">
         <v>20000</v>
@@ -1706,7 +1706,7 @@
         <v>1000</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB9" s="1">
         <v>1450</v>
@@ -1787,7 +1787,7 @@
         <v>37.0852</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y10" s="1">
         <v>50000</v>
@@ -1877,7 +1877,7 @@
         <v>34.024500000000003</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y11" s="1">
         <v>2000</v>
@@ -1886,7 +1886,7 @@
         <v>1000</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB11" s="1">
         <v>1750</v>
@@ -1967,7 +1967,7 @@
         <v>37.0852</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y12" s="1">
         <v>10000</v>
@@ -1976,7 +1976,7 @@
         <v>1000</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB12" s="1">
         <v>1440</v>
@@ -2057,7 +2057,7 @@
         <v>37.0852</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="1">
         <v>40000</v>
@@ -2147,7 +2147,7 @@
         <v>37.558799999999998</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y14" s="1">
         <v>25000</v>
@@ -2156,7 +2156,7 @@
         <v>1000</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB14" s="1">
         <v>1440</v>
@@ -2237,7 +2237,7 @@
         <v>37.0852</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="1">
         <v>37000</v>
@@ -2327,7 +2327,7 @@
         <v>37.0852</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y16" s="1">
         <v>18000</v>
@@ -2336,7 +2336,7 @@
         <v>1000</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB16" s="1">
         <v>980</v>
@@ -2417,7 +2417,7 @@
         <v>37.485199999999999</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y17" s="1">
         <v>17000</v>
@@ -2426,7 +2426,7 @@
         <v>1000</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB17" s="1">
         <v>1440</v>
@@ -2507,7 +2507,7 @@
         <v>37.0852</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y18" s="1">
         <v>9000</v>
@@ -2516,7 +2516,7 @@
         <v>1000</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB18" s="1">
         <v>788</v>
@@ -2597,7 +2597,7 @@
         <v>37.0852</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y19" s="1">
         <v>15000</v>
@@ -2687,7 +2687,7 @@
         <v>38.72</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y20" s="1">
         <v>8000</v>
@@ -2696,7 +2696,7 @@
         <v>1000</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB20" s="1">
         <v>1250</v>
@@ -2777,7 +2777,7 @@
         <v>37.0852</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y21" s="1">
         <v>7000</v>
@@ -2786,7 +2786,7 @@
         <v>1000</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB21" s="1">
         <v>1440</v>
@@ -2867,7 +2867,7 @@
         <v>39.555</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y22" s="1">
         <v>16000</v>
@@ -2876,7 +2876,7 @@
         <v>1000</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB22" s="1">
         <v>1270</v>
@@ -2957,7 +2957,7 @@
         <v>37.0852</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="1">
         <v>17000</v>
@@ -3047,7 +3047,7 @@
         <v>33.225200000000001</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y24" s="1">
         <v>9000</v>
@@ -3056,7 +3056,7 @@
         <v>1000</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB24" s="1">
         <v>1380</v>
@@ -3137,7 +3137,7 @@
         <v>37.0852</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y25" s="1">
         <v>4000</v>
@@ -3146,7 +3146,7 @@
         <v>1000</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AB25" s="1">
         <v>1440</v>
@@ -3172,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:AB16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>68</v>
@@ -3402,7 +3402,7 @@
         <v>42789</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -3426,7 +3426,7 @@
         <v>1000</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S5" s="6"/>
       <c r="U5" s="4"/>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="6" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -3453,7 +3453,7 @@
         <v>42796</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>72</v>
@@ -3503,7 +3503,7 @@
         <v>42828</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -3553,7 +3553,7 @@
         <v>42829</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="9" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>74</v>
@@ -3603,7 +3603,7 @@
         <v>42840</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="10" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>77</v>
@@ -3653,7 +3653,7 @@
         <v>42843</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>79</v>
@@ -3703,7 +3703,7 @@
         <v>42896</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>81</v>
@@ -3753,7 +3753,7 @@
         <v>42898</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>82</v>
@@ -3803,7 +3803,7 @@
         <v>42991</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>85</v>
@@ -3853,7 +3853,7 @@
         <v>43023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
@@ -3903,7 +3903,7 @@
         <v>43024</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="16" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>88</v>
@@ -3953,7 +3953,7 @@
         <v>43088</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>import</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>request_print_date</t>
+  </si>
+  <si>
+    <t>custom_print_date</t>
   </si>
 </sst>
 </file>
@@ -892,199 +895,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6">
+        <v>42791</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6">
         <v>42756</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>36.0852</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>36000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1299067.2</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>25000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6">
+        <v>42792</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6">
         <v>42757</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>36.0852</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>36000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1299067.2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>25000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6">
+        <v>42793</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6">
         <v>42758</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>61</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>36.0852</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>36000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1299067.2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>25000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1000</v>
       </c>
     </row>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1009,7 @@
         <v>42774</v>
       </c>
       <c r="D2" s="6">
-        <v>42760</v>
+        <v>42394</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t>import</t>
   </si>
@@ -180,24 +180,6 @@
     <t>037496</t>
   </si>
   <si>
-    <t>RICEGROWERS SINGAPORE PTE LIMITED T/AS SUNRICE LEVEL 20-61 ONE RAFFLES PLACE TOWER 2 SINGAPORE SLO48617</t>
-  </si>
-  <si>
-    <t>75/27-29 ชั้นที่ 18-19 อาคารโอเชี่ยนทาวเวอร์ 2 ซอยสุขุมวิท 19 (ซอยวัฒนา) ถนนสุขุมวิท แขวงคลองเตยเหนือ เขตวัฒนา กรุงเทพมหานคร 10111</t>
-  </si>
-  <si>
-    <t>0-2259-7871-9</t>
-  </si>
-  <si>
-    <t>0-2259-7870, 0-2259-1865</t>
-  </si>
-  <si>
-    <t>89 หมู่ 3 ต.ในเมือง อ.เมืองร้อยเอ็ด จ.ร้อยเอ็ด 45150</t>
-  </si>
-  <si>
-    <t>02-259-7871-9</t>
-  </si>
-  <si>
     <t>A0270600106871</t>
   </si>
   <si>
@@ -253,6 +235,111 @@
   </si>
   <si>
     <t>1006.20.10005</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>0105532018537</t>
+  </si>
+  <si>
+    <t>บริษัท นำเข้าข้าว จำกัด</t>
+  </si>
+  <si>
+    <t>02-33301425-1</t>
+  </si>
+  <si>
+    <t>0-2335-5555</t>
+  </si>
+  <si>
+    <t>นายภานุ เยี่ยมมาก</t>
+  </si>
+  <si>
+    <t>02-252-1111-4</t>
+  </si>
+  <si>
+    <t>037498</t>
+  </si>
+  <si>
+    <t>พณ0308606000312</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>1355231415555</t>
+  </si>
+  <si>
+    <t>บริษัท เจแปน จำกัด</t>
+  </si>
+  <si>
+    <t>78 บางแค บางแค กรุงเทพมหานคร 10160</t>
+  </si>
+  <si>
+    <t>วัฒนา</t>
+  </si>
+  <si>
+    <t>0-2213-9851-2</t>
+  </si>
+  <si>
+    <t>0-2111-5453</t>
+  </si>
+  <si>
+    <t>นายมานี มีไห</t>
+  </si>
+  <si>
+    <t>31 ต.หล่มสัก อ.หล่มสัก เพชรบูรณ์ 41032</t>
+  </si>
+  <si>
+    <t>111 ต.เมือง อ.เมือง เลย 10333</t>
+  </si>
+  <si>
+    <t>02-332-1221-4</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>พณ0308606000313</t>
+  </si>
+  <si>
+    <t>037499</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>1211135829831</t>
+  </si>
+  <si>
+    <t>บริษัท พารวย จำกัด</t>
+  </si>
+  <si>
+    <t>พระราม9</t>
+  </si>
+  <si>
+    <t>0-2659-9243-1</t>
+  </si>
+  <si>
+    <t>0-2553-7788</t>
+  </si>
+  <si>
+    <t>นาย มาโนช กำจัดภัย</t>
+  </si>
+  <si>
+    <t>22 ต.บางแค อ.บางแค กรุงเทพมหานคร 10160</t>
+  </si>
+  <si>
+    <t>02-932-7441-9</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>incoterm</t>
+  </si>
+  <si>
+    <t>CIF</t>
   </si>
 </sst>
 </file>
@@ -305,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -315,9 +402,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,18 +703,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="1" bestFit="1" customWidth="1"/>
@@ -649,18 +733,19 @@
     <col min="20" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -668,16 +753,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>9</v>
@@ -728,39 +813,42 @@
         <v>16</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3">
-        <v>42774</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6">
         <v>42394</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42775</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -805,7 +893,7 @@
         <v>46</v>
       </c>
       <c r="S2" s="3">
-        <v>42756</v>
+        <v>42787</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>38</v>
@@ -816,29 +904,32 @@
       <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="1">
         <v>36.0852</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>25000</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>1000</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>1440</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>1299067.2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -846,10 +937,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="6">
-        <v>42775</v>
+        <v>42761</v>
       </c>
       <c r="D3" s="6">
-        <v>42761</v>
+        <v>42776</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -861,31 +952,31 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>46</v>
@@ -894,7 +985,7 @@
         <v>46</v>
       </c>
       <c r="S3" s="6">
-        <v>42757</v>
+        <v>42788</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>38</v>
@@ -905,40 +996,43 @@
       <c r="V3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="1">
         <v>37.0852</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>300</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>10</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>1440</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>1335067.2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6">
-        <v>42776</v>
+        <v>42763</v>
       </c>
       <c r="D4" s="6">
-        <v>43128</v>
+        <v>42778</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -950,40 +1044,40 @@
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="Q4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="R4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S4" s="6">
-        <v>42758</v>
+        <v>42789</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>38</v>
@@ -994,223 +1088,393 @@
       <c r="V4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" s="1">
         <v>35</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="1">
         <v>5555</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>2345</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="1">
         <v>2000</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>388850</v>
       </c>
-      <c r="AD4" s="8"/>
-    </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="S5" s="6"/>
-      <c r="U5" s="4"/>
-      <c r="AA5"/>
-      <c r="AD5" s="8"/>
-    </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="I6" s="2"/>
-      <c r="S6" s="6"/>
-      <c r="U6" s="4"/>
-      <c r="AD6" s="8"/>
-    </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42763</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42778</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="6">
+        <v>42789</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X5" s="1">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>365020</v>
+      </c>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42764</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42779</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="6">
+        <v>42790</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="1">
+        <v>36.0852</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1299067.2</v>
+      </c>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="I7" s="2"/>
       <c r="S7" s="6"/>
       <c r="U7" s="4"/>
-      <c r="AD7" s="8"/>
-    </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="I8" s="2"/>
       <c r="S8" s="6"/>
       <c r="U8" s="4"/>
-      <c r="AD8" s="8"/>
-    </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="I9" s="2"/>
       <c r="S9" s="6"/>
       <c r="U9" s="4"/>
-      <c r="AD9" s="8"/>
-    </row>
-    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="I10" s="2"/>
       <c r="S10" s="6"/>
       <c r="U10" s="4"/>
-      <c r="AD10" s="8"/>
-    </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="I11" s="2"/>
       <c r="S11" s="6"/>
       <c r="U11" s="4"/>
-      <c r="AD11" s="8"/>
-    </row>
-    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="I12" s="2"/>
       <c r="S12" s="6"/>
       <c r="U12" s="4"/>
-      <c r="AD12" s="8"/>
-    </row>
-    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="I13" s="2"/>
       <c r="S13" s="6"/>
       <c r="U13" s="4"/>
-      <c r="AD13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="I14" s="2"/>
       <c r="S14" s="6"/>
       <c r="U14" s="4"/>
-      <c r="AD14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="I15" s="2"/>
       <c r="S15" s="6"/>
       <c r="U15" s="4"/>
-      <c r="AD15" s="8"/>
-    </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="I16" s="2"/>
       <c r="S16" s="6"/>
       <c r="U16" s="4"/>
-      <c r="AD16" s="8"/>
-    </row>
-    <row r="17" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE16" s="8"/>
+    </row>
+    <row r="17" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="I17" s="2"/>
       <c r="S17" s="6"/>
       <c r="U17" s="4"/>
-      <c r="AD17" s="8"/>
-    </row>
-    <row r="18" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE17" s="8"/>
+    </row>
+    <row r="18" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="I18" s="2"/>
       <c r="S18" s="6"/>
       <c r="U18" s="4"/>
-      <c r="AD18" s="8"/>
-    </row>
-    <row r="19" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE18" s="8"/>
+    </row>
+    <row r="19" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="I19" s="2"/>
       <c r="S19" s="6"/>
       <c r="U19" s="4"/>
-      <c r="AD19" s="8"/>
-    </row>
-    <row r="20" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE19" s="8"/>
+    </row>
+    <row r="20" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="I20" s="2"/>
       <c r="S20" s="6"/>
       <c r="U20" s="4"/>
-      <c r="AD20" s="8"/>
-    </row>
-    <row r="21" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE20" s="8"/>
+    </row>
+    <row r="21" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="I21" s="2"/>
       <c r="S21" s="6"/>
       <c r="U21" s="4"/>
-      <c r="AD21" s="8"/>
-    </row>
-    <row r="22" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE21" s="8"/>
+    </row>
+    <row r="22" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="I22" s="2"/>
       <c r="S22" s="6"/>
       <c r="U22" s="4"/>
-      <c r="AD22" s="8"/>
-    </row>
-    <row r="23" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE22" s="8"/>
+    </row>
+    <row r="23" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="I23" s="2"/>
       <c r="S23" s="6"/>
       <c r="U23" s="4"/>
-      <c r="AD23" s="8"/>
-    </row>
-    <row r="24" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE23" s="8"/>
+    </row>
+    <row r="24" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="I24" s="2"/>
       <c r="S24" s="6"/>
       <c r="U24" s="4"/>
-      <c r="AD24" s="8"/>
-    </row>
-    <row r="25" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="I25" s="2"/>
       <c r="S25" s="6"/>
       <c r="U25" s="4"/>
-      <c r="AD25" s="8"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="8"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="S27" s="6"/>
     </row>
   </sheetData>
@@ -1224,7 +1488,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -1312,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="6">
-        <v>42756</v>
+        <v>42787</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -1339,30 +1603,30 @@
         <v>1000</v>
       </c>
       <c r="O2" s="6">
-        <v>42756</v>
+        <v>42787</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6">
-        <v>42758</v>
+        <v>42789</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -1386,19 +1650,55 @@
         <v>2345</v>
       </c>
       <c r="O3" s="6">
-        <v>42756</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="C4" s="2"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" s="6"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="N4"/>
-      <c r="O4" s="9"/>
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="6">
+        <v>42790</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1">
+        <v>36.0852</v>
+      </c>
+      <c r="K4">
+        <v>36000</v>
+      </c>
+      <c r="L4">
+        <v>1299067.2</v>
+      </c>
+      <c r="M4">
+        <v>25000</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="6">
+        <v>42790</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="U4" s="4"/>
       <c r="AA4"/>

--- a/app/files/wto.xlsx
+++ b/app/files/wto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="f3" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
   <si>
     <t>import</t>
   </si>
@@ -96,9 +96,6 @@
     <t>พณ0308606000309</t>
   </si>
   <si>
-    <t>037495</t>
-  </si>
-  <si>
     <t>type_request</t>
   </si>
   <si>
@@ -340,6 +337,48 @@
   </si>
   <si>
     <t>CIF</t>
+  </si>
+  <si>
+    <t>1006.30.99016</t>
+  </si>
+  <si>
+    <t>ข้าวเจ้าขาวญี่ปุ่น 5 %</t>
+  </si>
+  <si>
+    <t>พณ0308606000200</t>
+  </si>
+  <si>
+    <t>027495</t>
+  </si>
+  <si>
+    <t>027494</t>
+  </si>
+  <si>
+    <t>JAPAN CORP</t>
+  </si>
+  <si>
+    <t>023341231311</t>
+  </si>
+  <si>
+    <t>บริษัท ชัยวัฒข้าวนอก จำกัด</t>
+  </si>
+  <si>
+    <t>0-2531-4444-1</t>
+  </si>
+  <si>
+    <t>0-2563-1512</t>
+  </si>
+  <si>
+    <t>นายประทวย เฮงทรัพย์</t>
+  </si>
+  <si>
+    <t>44 บางบัวทอง บางใหญ่ นนทบุรี 10450</t>
+  </si>
+  <si>
+    <t>842 บางบัวทอง บางใหญ่ นนทบุรี 10450</t>
+  </si>
+  <si>
+    <t>02-142-8641</t>
   </si>
 </sst>
 </file>
@@ -392,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -402,6 +441,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,16 +795,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>9</v>
@@ -804,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>15</v>
@@ -813,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>17</v>
@@ -837,18 +879,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6">
-        <v>42394</v>
-      </c>
-      <c r="D2" s="3">
-        <v>42775</v>
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10">
+        <v>42392</v>
+      </c>
+      <c r="D2" s="10">
+        <v>42407</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -857,182 +899,182 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="10">
+        <v>42415</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="9">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="3">
-        <v>42787</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="1">
-        <v>36.0852</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>25000</v>
-      </c>
-      <c r="AA2" s="1">
+      <c r="Z2" s="9">
         <v>1000</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1440</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1299067.2</v>
+      <c r="AA2" s="9">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>1200</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>36000</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C3" s="6">
-        <v>42761</v>
-      </c>
-      <c r="D3" s="6">
-        <v>42776</v>
+        <v>42394</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42409</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="6">
-        <v>42788</v>
+        <v>45</v>
+      </c>
+      <c r="S3" s="3">
+        <v>42421</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="1">
+        <v>36.0852</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" s="1">
-        <v>37.0852</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="AC3" s="1">
         <v>1440</v>
       </c>
       <c r="AD3" s="1">
-        <v>1335067.2</v>
+        <v>1299067.2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6">
-        <v>42763</v>
+        <v>42761</v>
       </c>
       <c r="D4" s="6">
-        <v>42778</v>
+        <v>42776</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1041,85 +1083,84 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="S4" s="6">
-        <v>42789</v>
+        <v>42788</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="1">
+        <v>37.0852</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X4" s="1">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="Z4" s="1">
-        <v>5555</v>
+        <v>300</v>
       </c>
       <c r="AA4" s="1">
-        <v>2345</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC4" s="1">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="AD4" s="1">
-        <v>388850</v>
-      </c>
-      <c r="AE4" s="8"/>
+        <v>1335067.2</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6">
         <v>42763</v>
@@ -1131,182 +1172,266 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="S5" s="6">
         <v>42789</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="W5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X5" s="1">
         <v>35</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z5" s="1">
-        <v>1000</v>
+        <v>5555</v>
       </c>
       <c r="AA5" s="1">
-        <v>50</v>
+        <v>2345</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="1">
         <v>2000</v>
       </c>
       <c r="AD5" s="1">
-        <v>365020</v>
+        <v>388850</v>
       </c>
       <c r="AE5" s="8"/>
     </row>
     <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6">
-        <v>42764</v>
+        <v>42763</v>
       </c>
       <c r="D6" s="6">
-        <v>42779</v>
+        <v>42778</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="6">
+        <v>42789</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="1">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>365020</v>
+      </c>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6">
+        <v>42764</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42779</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="R7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="6">
         <v>42790</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="T7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" s="1">
+        <v>36.0852</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" s="1">
-        <v>36.0852</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z7" s="1">
+        <v>25000</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="1">
-        <v>25000</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="1">
+      <c r="AC7" s="1">
         <v>1440</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD7" s="1">
         <v>1299067.2</v>
       </c>
-      <c r="AE6" s="8"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="I7" s="2"/>
-      <c r="S7" s="6"/>
-      <c r="U7" s="4"/>
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.25">
@@ -1471,11 +1596,20 @@
       <c r="U25" s="4"/>
       <c r="AE25" s="8"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="I26" s="2"/>
       <c r="S26" s="6"/>
+      <c r="U26" s="4"/>
+      <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="S28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,13 +1648,13 @@
   <sheetData>
     <row r="1" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>12</v>
@@ -1535,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>16</v>
@@ -1544,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>19</v>
@@ -1556,36 +1690,36 @@
         <v>20</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6">
-        <v>42787</v>
+        <v>42421</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>36.0852</v>
@@ -1603,36 +1737,36 @@
         <v>1000</v>
       </c>
       <c r="O2" s="6">
-        <v>42787</v>
+        <v>42421</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6">
         <v>42789</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>35</v>
@@ -1655,31 +1789,31 @@
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="6">
         <v>42790</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1">
         <v>36.0852</v>
